--- a/商城功能模块.xlsx
+++ b/商城功能模块.xlsx
@@ -11,7 +11,7 @@
     <sheet name="表格模板" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$I$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表格模板!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>功能模块</t>
   </si>
@@ -27,6 +27,9 @@
     <t>页面名称</t>
   </si>
   <si>
+    <t>文件名</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>首页</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>公共的菜单，促销广告，热门商品，公告等</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
     <t>商品列表</t>
   </si>
   <si>
+    <t>commodityList</t>
+  </si>
+  <si>
     <t>分类筛选/搜索</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>商品详情</t>
   </si>
   <si>
+    <t>commodityDetail</t>
+  </si>
+  <si>
     <t>商品简介（价格，库存），相册，商品参数，详细介绍，加入购物车</t>
   </si>
   <si>
@@ -84,12 +96,18 @@
     <t>购物车</t>
   </si>
   <si>
+    <t>cart</t>
+  </si>
+  <si>
     <t>翁晓丹/张嘉武</t>
   </si>
   <si>
     <t>确认订单</t>
   </si>
   <si>
+    <t>confirmOrder</t>
+  </si>
+  <si>
     <t>翁晓丹</t>
   </si>
   <si>
@@ -108,13 +126,19 @@
     <t>会员中心首页</t>
   </si>
   <si>
+    <t>memberCenter</t>
+  </si>
+  <si>
     <t>显示当前用户信息</t>
   </si>
   <si>
     <t>林丰浩</t>
   </si>
   <si>
-    <t>基本信息修改</t>
+    <t>会员信息修改</t>
+  </si>
+  <si>
+    <t>memberSetting</t>
   </si>
   <si>
     <t>当前用户信息</t>
@@ -123,12 +147,18 @@
     <t>修改密码</t>
   </si>
   <si>
+    <t>pswModify</t>
+  </si>
+  <si>
     <t>文峥</t>
   </si>
   <si>
     <t>收货地址</t>
   </si>
   <si>
+    <t>memberAddress</t>
+  </si>
+  <si>
     <t>地址的新增修改删除</t>
   </si>
   <si>
@@ -138,6 +168,9 @@
     <t>订单列表</t>
   </si>
   <si>
+    <t>memberOrder</t>
+  </si>
+  <si>
     <t>订单的筛选和管理，支付</t>
   </si>
   <si>
@@ -147,6 +180,9 @@
     <t>订单详情</t>
   </si>
   <si>
+    <t>memberOrderDetail</t>
+  </si>
+  <si>
     <t>黄嘉萍/戴广泽</t>
   </si>
   <si>
@@ -156,10 +192,16 @@
     <t>登录页</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
     <t>肖启霖</t>
   </si>
   <si>
     <t>注册页</t>
+  </si>
+  <si>
+    <t>register</t>
   </si>
   <si>
     <t>采用手机注册</t>
@@ -292,17 +334,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,23 +424,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,89 +457,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +485,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +575,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,139 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,32 +684,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +721,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -734,6 +741,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,25 +1313,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
+    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,364 +1357,405 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="F8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="H9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
         <v>2.5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="H12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
         <v>2.5</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="H13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3" t="s">
-        <v>56</v>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H14">
+  <autoFilter ref="A1:I19">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="详情"/>
+    <hyperlink ref="I2" r:id="rId1" display="详情"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1700,42 +1784,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="6:6">

--- a/商城功能模块.xlsx
+++ b/商城功能模块.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -326,6 +326,120 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -334,13 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -349,115 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,25 +485,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,49 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,24 +635,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,73 +647,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,8 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +699,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,58 +771,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/商城功能模块.xlsx
+++ b/商城功能模块.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>功能模块</t>
   </si>
@@ -213,6 +213,9 @@
     <t>商品分类</t>
   </si>
   <si>
+    <t>listCategory</t>
+  </si>
+  <si>
     <t>低</t>
   </si>
   <si>
@@ -222,13 +225,22 @@
     <t>商品管理</t>
   </si>
   <si>
+    <t>listCommodity</t>
+  </si>
+  <si>
     <t>会员</t>
   </si>
   <si>
+    <t>listMember</t>
+  </si>
+  <si>
     <t>戴国欣</t>
   </si>
   <si>
     <t>订单</t>
+  </si>
+  <si>
+    <t>listOrder</t>
   </si>
   <si>
     <t>戴广泽</t>
@@ -257,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -328,21 +340,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -351,32 +364,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +379,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -404,37 +439,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,10 +453,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,175 +509,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,33 +694,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -717,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,16 +725,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +762,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1328,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1686,15 +1698,18 @@
       <c r="B16" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1702,7 +1717,10 @@
         <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
@@ -1712,7 +1730,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1720,7 +1738,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
@@ -1729,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1737,7 +1758,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
@@ -1747,7 +1771,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1784,19 +1808,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -1804,19 +1828,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>

--- a/商城功能模块.xlsx
+++ b/商城功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
+    <workbookView windowWidth="20490" windowHeight="8820" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -338,17 +338,40 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +393,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -379,103 +476,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -497,6 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,7 +515,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,144 +659,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,18 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,20 +691,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +721,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -739,26 +745,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,11 +773,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,34 +808,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,97 +847,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/商城功能模块.xlsx
+++ b/商城功能模块.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820" tabRatio="869"/>
+    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
     <sheet name="表格模板" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$J$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表格模板!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>功能模块</t>
   </si>
@@ -27,6 +27,9 @@
     <t>页面名称</t>
   </si>
   <si>
+    <t>需登录</t>
+  </si>
+  <si>
     <t>文件名</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>首页</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
   </si>
   <si>
     <t>购物车</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>cart</t>
@@ -269,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -338,25 +347,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +377,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -385,16 +444,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,75 +475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,43 +506,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,37 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,97 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +697,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,6 +750,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,30 +789,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -755,39 +797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -796,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,26 +1334,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1372,414 +1382,465 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="G8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="I9" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="G10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
         <v>2.5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="I12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="G13" s="3">
         <v>2.5</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="I13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="3" t="s">
-        <v>74</v>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I19">
+  <autoFilter ref="A1:J19">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="详情"/>
+    <hyperlink ref="J2" r:id="rId1" display="详情"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1808,42 +1869,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="6:6">
